--- a/vbai-fhir/CodeSystem-Yes-No-Some.xlsx
+++ b/vbai-fhir/CodeSystem-Yes-No-Some.xlsx
@@ -272,10 +272,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/vbai-fhir/CodeSystem-Yes-No-Some.xlsx
+++ b/vbai-fhir/CodeSystem-Yes-No-Some.xlsx
@@ -272,10 +272,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/vbai-fhir/CodeSystem-Yes-No-Some.xlsx
+++ b/vbai-fhir/CodeSystem-Yes-No-Some.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -272,10 +272,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/vbai-fhir/CodeSystem-Yes-No-Some.xlsx
+++ b/vbai-fhir/CodeSystem-Yes-No-Some.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
   <si>
     <t>Property</t>
   </si>
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Questionnaire Yes/No/Some codes</t>
+    <t>Yes/No/Some Response Codes</t>
   </si>
   <si>
     <t>Status</t>
@@ -75,7 +75,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>The codes required for Questionnaires yes/no/some</t>
+    <t>A set of codes representing 'Yes', 'No', and 'Some' responses for questionnaires.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -91,9 +91,6 @@
   </si>
   <si>
     <t>Value Set (all codes)</t>
-  </si>
-  <si>
-    <t>https://voicecollab.ai/fhir/ValueSet/yesnodontknow</t>
   </si>
   <si>
     <t>Hierarchy</t>
@@ -404,48 +401,46 @@
       <c r="A15" t="s" s="2">
         <v>25</v>
       </c>
-      <c r="B15" t="s" s="2">
-        <v>26</v>
-      </c>
+      <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>30</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>31</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B21" t="s" s="2">
         <v>33</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -463,58 +458,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s" s="1">
         <v>35</v>
       </c>
-      <c r="B1" t="s" s="1">
+      <c r="C1" t="s" s="1">
         <v>36</v>
       </c>
-      <c r="C1" t="s" s="1">
+      <c r="D1" t="s" s="1">
         <v>37</v>
-      </c>
-      <c r="D1" t="s" s="1">
-        <v>38</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="B2" t="s" s="2">
+      <c r="C2" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="C2" t="s" s="2">
-        <v>41</v>
-      </c>
       <c r="D2" t="s" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="C3" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>43</v>
-      </c>
       <c r="D3" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="C4" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="C4" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="D4" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/vbai-fhir/CodeSystem-Yes-No-Some.xlsx
+++ b/vbai-fhir/CodeSystem-Yes-No-Some.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.4.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/vbai-fhir/CodeSystem-Yes-No-Some.xlsx
+++ b/vbai-fhir/CodeSystem-Yes-No-Some.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.5.1</t>
   </si>
   <si>
     <t>Name</t>
